--- a/Portafolio 2 Ejercicios Lab.xlsx
+++ b/Portafolio 2 Ejercicios Lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCBB-28\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saidr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A15948D-4C0C-4560-A0EB-4A892E130123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABF2EB3-BE3D-4143-A180-5A9057AE6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5B6F9181-5C00-45E4-9730-F913F650CD3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{5B6F9181-5C00-45E4-9730-F913F650CD3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla de Ejercicios" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -107,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,18 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -238,7 +235,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,6 +244,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,14 +276,14 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -292,11 +301,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -304,7 +312,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-NI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -318,34 +326,49 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -425,9 +448,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -443,9 +467,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -459,9 +482,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -469,7 +491,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1822216288"/>
@@ -487,9 +509,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -505,9 +528,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -521,9 +543,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -531,7 +552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1822221280"/>
@@ -552,11 +573,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -572,7 +596,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-NI"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -586,7 +610,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -611,11 +635,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -623,7 +646,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-NI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -637,34 +660,49 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -744,9 +782,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -762,9 +801,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -778,9 +816,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -788,7 +825,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1862888032"/>
@@ -806,9 +843,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -824,9 +862,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -840,9 +877,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -850,7 +886,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1862887616"/>
@@ -871,11 +907,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -891,7 +930,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-NI"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -905,14 +944,14 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -930,19 +969,25 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-NI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -956,34 +1001,70 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1063,9 +1144,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1081,12 +1162,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1097,9 +1176,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1107,7 +1185,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1822234592"/>
@@ -1125,9 +1203,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1143,12 +1221,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1159,9 +1235,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1169,7 +1244,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1822238752"/>
@@ -1189,17 +1264,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1210,7 +1296,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-NI"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1224,14 +1310,14 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1257,11 +1343,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1269,7 +1354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-NI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1283,34 +1368,49 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1396,9 +1496,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1414,9 +1515,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1430,9 +1530,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1440,7 +1539,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1582372256"/>
@@ -1458,9 +1557,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1476,9 +1576,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1492,9 +1591,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1502,7 +1600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1582371840"/>
@@ -1523,11 +1621,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1543,7 +1644,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-NI"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1555,42 +1656,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1635,136 +1702,58 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1772,16 +1761,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1791,23 +1779,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1815,63 +1798,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1895,21 +1938,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1919,20 +1959,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1944,14 +1983,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1963,14 +2001,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1982,14 +2019,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2001,9 +2032,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2020,9 +2052,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2034,14 +2067,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2053,14 +2085,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2072,27 +2103,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2100,9 +2130,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2112,14 +2141,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2131,12 +2159,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2145,14 +2172,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2161,9 +2189,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2173,17 +2200,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2195,92 +2223,75 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2288,16 +2299,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2307,23 +2317,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2331,63 +2336,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2411,21 +2476,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2435,20 +2497,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2460,14 +2521,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2479,14 +2539,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2498,14 +2557,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2517,9 +2570,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2536,9 +2590,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2550,14 +2605,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2569,14 +2623,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2588,27 +2641,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2616,9 +2668,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2628,14 +2679,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2647,12 +2697,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2661,14 +2710,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2677,9 +2727,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2689,17 +2738,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2711,98 +2761,95 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2811,9 +2858,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2832,14 +2878,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2848,20 +2886,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2870,13 +2908,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2888,30 +2926,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2927,21 +2966,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2960,14 +2996,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2979,14 +3014,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3000,9 +3035,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3016,12 +3050,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3033,9 +3061,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3050,14 +3078,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3069,14 +3096,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3088,14 +3115,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3104,14 +3130,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3119,7 +3144,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3132,11 +3157,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3144,14 +3177,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3163,12 +3196,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3184,7 +3224,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3193,9 +3233,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3211,14 +3250,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3227,20 +3265,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3252,67 +3287,51 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3320,16 +3339,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3339,23 +3357,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3363,63 +3376,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3443,21 +3516,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3467,20 +3537,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3492,14 +3561,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3511,14 +3579,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3530,14 +3597,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3549,9 +3610,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3568,9 +3630,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3582,14 +3645,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3601,14 +3663,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3620,27 +3681,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3648,9 +3708,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3660,14 +3719,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3679,12 +3737,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3693,14 +3750,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3709,9 +3767,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3721,17 +3778,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3743,37 +3801,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3788,8 +3839,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411942" cy="346890"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -3831,6 +3882,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4065,7 +4117,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -4296,8 +4348,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="359586" cy="346890"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -4339,6 +4391,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4387,7 +4440,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -4466,8 +4519,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4671471" cy="345672"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -4509,6 +4562,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4803,7 +4857,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -4897,8 +4951,8 @@
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3417218" cy="326756"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -4940,6 +4994,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4954,7 +5009,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4967,7 +5022,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4981,7 +5036,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4997,7 +5052,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5010,7 +5065,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5243,7 +5298,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -5403,8 +5458,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3365217" cy="326756"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -5446,6 +5501,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5460,7 +5516,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5473,7 +5529,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5487,7 +5543,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5503,7 +5559,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5516,7 +5572,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5752,7 +5808,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -5852,8 +5908,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3485377" cy="330540"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -5895,6 +5951,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5909,7 +5966,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5922,7 +5979,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5936,7 +5993,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5952,7 +6009,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5965,7 +6022,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6018,7 +6075,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6030,7 +6087,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6042,7 +6099,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6226,7 +6283,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -6344,8 +6401,8 @@
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2350195" cy="326756"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -6387,6 +6444,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6401,7 +6459,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6414,7 +6472,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6428,7 +6486,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6444,7 +6502,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6457,7 +6515,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6615,7 +6673,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -6785,8 +6843,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="359586" cy="345672"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -6828,6 +6886,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6889,7 +6948,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -6960,8 +7019,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4765535" cy="345672"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -7003,6 +7062,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7335,7 +7395,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -7423,16 +7483,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>690562</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220662</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>690562</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220662</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7460,11 +7520,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1609725" cy="382605"/>
+    <xdr:ext cx="1955800" cy="286232"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -7480,8 +7540,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2438400" y="1590675"/>
-              <a:ext cx="1609725" cy="382605"/>
+              <a:off x="2457450" y="1520825"/>
+              <a:ext cx="1955800" cy="286232"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7514,6 +7574,90 @@
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝒇</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝟑</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝒙</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
                   <m:r>
                     <a:rPr lang="es-NI" sz="1600" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -7625,8 +7769,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2438400" y="1590675"/>
-              <a:ext cx="1609725" cy="382605"/>
+              <a:off x="2457450" y="1520825"/>
+              <a:ext cx="1955800" cy="286232"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7656,6 +7800,18 @@
               <a:r>
                 <a:rPr lang="es-NI" sz="1600"/>
                 <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒇_𝟑 (𝒙)=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-NI" sz="1600" b="0" i="0">
@@ -7740,8 +7896,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="218970" cy="345672"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -7783,6 +7939,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7835,7 +7992,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -7934,6 +8091,825 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4650568" cy="345672"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D319F5-A571-447A-B6F3-C1E664577CB5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="723900" y="2597150"/>
+              <a:ext cx="4650568" cy="345672"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟑</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟒</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝟐</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D319F5-A571-447A-B6F3-C1E664577CB5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="723900" y="2597150"/>
+              <a:ext cx="4650568" cy="345672"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝟑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙)=𝟏/𝟐+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝟏/𝟐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝒙−𝟎)+𝟏/𝟒 (𝒙−𝟎)(𝒙−𝟏)+𝟏/𝟏𝟐(𝒙−𝟎)(𝒙−𝟏)(𝒙−𝟐)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1413977" cy="374013"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6678234F-8DCA-4809-BF3A-470C1C5DBAA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2673350" y="1536700"/>
+              <a:ext cx="1413977" cy="374013"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟑</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒙</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝟑</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟓</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟔</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝟐</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6678234F-8DCA-4809-BF3A-470C1C5DBAA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2673350" y="1536700"/>
+              <a:ext cx="1413977" cy="374013"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝟑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙)=(𝒙^𝟑−𝟓𝒙+𝟔)/𝟏𝟐</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7947,8 +8923,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="727892" cy="346954"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -7990,6 +8966,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8038,7 +9015,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -8111,16 +9088,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>435119</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>72880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>435119</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>149657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8145,11 +9122,1215 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8078173" cy="349455"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73F557E-F00D-42AB-AA0A-E5C89F4BB2D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="768350" y="2216150"/>
+              <a:ext cx="8078173" cy="349455"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟑</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟖𝟎𝟎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟕𝟓𝟓</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟑𝟔𝟓</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟒</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>16.6666667</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟎</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝟕𝟔𝟑𝟎𝟐𝟎𝟖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝟎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝟏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝟐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73F557E-F00D-42AB-AA0A-E5C89F4BB2D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="768350" y="2216150"/>
+              <a:ext cx="8078173" cy="349455"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝟑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙)=𝟖𝟎𝟎+𝟕𝟓𝟓(𝒙−𝟎)−𝟑𝟔𝟓/𝟒 (𝒙−𝟎)(𝒙−𝟏)+"16.6666667" (𝒙−𝟎)(𝒙−𝟏)(𝒙−𝟐)−𝟏.𝟕𝟔𝟑𝟎𝟐𝟎𝟖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝟎)(𝒙−𝟏)(𝒙−𝟐)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4693529" cy="196016"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9F2A36-8A78-F01C-9956-37FBF3876010}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2352675" y="1657350"/>
+              <a:ext cx="4693529" cy="196016"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝒇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝟑</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝒙</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟏𝟒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>.</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟗𝟎𝟑𝟔𝟒𝟓𝟗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟑</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝟏𝟑𝟓</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>.</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝟗𝟔𝟎𝟗𝟑𝟕𝟕</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝟐</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝟖𝟕𝟔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝟎𝟓𝟕𝟐𝟗𝟏𝟖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1200" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝟖𝟎𝟎</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9F2A36-8A78-F01C-9956-37FBF3876010}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2352675" y="1657350"/>
+              <a:ext cx="4693529" cy="196016"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒇_𝟑 (𝒙)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝟏𝟒.𝟗𝟎𝟑𝟔𝟒𝟓𝟗𝒙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝟑−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝟏𝟑𝟓.𝟗𝟔𝟎𝟗𝟑𝟕𝟕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝟐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝟖𝟕𝟔.𝟎𝟓𝟕𝟐𝟗𝟏𝟖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1200" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒙+𝟖𝟎𝟎</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8451,29 +10632,29 @@
       <selection activeCell="K3" sqref="K3:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="19"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8481,26 +10662,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -8514,10 +10695,10 @@
       <c r="E3" s="3">
         <v>-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>-1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.5</v>
       </c>
       <c r="J3" s="3">
@@ -8527,7 +10708,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -8541,10 +10722,10 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="J4" s="3">
@@ -8554,7 +10735,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -8568,10 +10749,10 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>2</v>
       </c>
       <c r="J5" s="3">
@@ -8581,7 +10762,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -8595,10 +10776,10 @@
       <c r="E6" s="3">
         <v>-3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>4</v>
       </c>
       <c r="J6" s="3">
@@ -8608,7 +10789,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J7" s="3">
         <v>13</v>
       </c>
@@ -8631,47 +10812,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C33F921-20F4-4106-9899-DD249C4069EC}">
   <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>-1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -8682,14 +10863,14 @@
         <f>(B5-B4)/(A5-A4)</f>
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -8704,13 +10885,13 @@
         <f>(C6-C5)/(A6-A4)</f>
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -8729,22 +10910,39 @@
         <f>(D7-D6)/(A7-A4)</f>
         <v>-9.3333333333333339</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J14" s="7"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F6:G7"/>
+    <mergeCell ref="D9:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8755,47 +10953,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DC7631-DBF6-4195-BC2D-B280C3BB9269}">
   <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>-2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -8806,14 +11004,14 @@
         <f>(B5-B4)/(A5-A4)</f>
         <v>1.5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8828,14 +11026,14 @@
         <f>(C6-C5)/(A6-A4)</f>
         <v>-0.25</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="17"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -8854,19 +11052,28 @@
         <f>(D7-D6)/(A7-A4)</f>
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8875,71 +11082,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC95E11-B319-4C4A-AA66-40E25C04B9D9}">
-  <dimension ref="A3:G10"/>
+  <dimension ref="A3:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>-1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="3">
         <f>(B5-B4)/(A5-A4)</f>
         <v>0.5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="3">
@@ -8950,17 +11157,17 @@
         <f>(C6-C5)/(A6-A4)</f>
         <v>0.25</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="3">
@@ -8975,19 +11182,33 @@
         <f>(D7-D6)/(A7-A4)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8996,55 +11217,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331710BA-3014-4591-BD37-190021F23263}">
-  <dimension ref="A3:H10"/>
+  <dimension ref="A3:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>800</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -9055,17 +11276,17 @@
         <f>(B5-B4)/(A5-A4)</f>
         <v>755</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9080,14 +11301,14 @@
         <f>(C6-C5)/(A6-A4)</f>
         <v>-91.25</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -9106,13 +11327,13 @@
         <f>(D7-D6)/(A7-A4)</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -9131,23 +11352,31 @@
         <f>(D8-D7)/(A8-A5)</f>
         <v>-4.489583333333333</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <f>(E8-E7)/(A8-A4)</f>
         <v>-1.7630208333333333</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
